--- a/On-the-job and self-study.xlsx
+++ b/On-the-job and self-study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://btgroupcloud-my.sharepoint.com/personal/mark_todd_ee_co_uk/Documents/Desktop/BPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{6781221B-035B-4925-AF38-D5D9484588B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84E19113-8936-4CCE-AFA6-2765E5D40E69}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{6781221B-035B-4925-AF38-D5D9484588B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{474EB0B4-C495-4FDE-8C34-37F74D8F7005}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{87251D64-A23B-4DC4-BF2E-D68309477306}"/>
+    <workbookView xWindow="30612" yWindow="924" windowWidth="23256" windowHeight="14616" xr2:uid="{87251D64-A23B-4DC4-BF2E-D68309477306}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -382,6 +382,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -403,7 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -729,7 +729,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,90 +744,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="E5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="15">
         <f>SUM(B9:E51)</f>
         <v>1</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="16">
         <f>SUM(F9:H51)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -856,7 +856,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
+      <c r="A9" s="17">
         <v>45626</v>
       </c>
       <c r="B9" s="7">
@@ -870,54 +870,74 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="17">
+        <v>45628</v>
+      </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="17">
+        <v>45629</v>
+      </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="17">
+        <v>45630</v>
+      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="17">
+        <v>45635</v>
+      </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="17">
+        <v>45636</v>
+      </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
